--- a/birthdays.xlsx
+++ b/birthdays.xlsx
@@ -48,7 +48,7 @@
     <t>Happy Birthday my friend</t>
   </si>
   <si>
-    <t>Python Facebook Birthday Wisher/specialcake.jpg</t>
+    <t>specialcake.jpg</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
